--- a/data/pca/factorExposure/factorExposure_2012-06-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-22.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01747155685300396</v>
+        <v>0.02245024319494207</v>
       </c>
       <c r="C2">
-        <v>0.02851395079948798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02348700867906749</v>
+      </c>
+      <c r="D2">
+        <v>0.003313017942003713</v>
+      </c>
+      <c r="E2">
+        <v>0.0191729637418205</v>
+      </c>
+      <c r="F2">
+        <v>-0.004954557443772745</v>
+      </c>
+      <c r="G2">
+        <v>-0.009960648808417249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06774659252608993</v>
+        <v>0.07562415713980554</v>
       </c>
       <c r="C4">
-        <v>0.06135615150396699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04126503961285091</v>
+      </c>
+      <c r="D4">
+        <v>0.07116484347743321</v>
+      </c>
+      <c r="E4">
+        <v>-0.002131930518333925</v>
+      </c>
+      <c r="F4">
+        <v>-0.02793288632878438</v>
+      </c>
+      <c r="G4">
+        <v>0.01179785195971812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09765558851639734</v>
+        <v>0.1156123967112235</v>
       </c>
       <c r="C6">
-        <v>0.06899206966224036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04733501225545165</v>
+      </c>
+      <c r="D6">
+        <v>0.01345266810931664</v>
+      </c>
+      <c r="E6">
+        <v>-0.002890608921080411</v>
+      </c>
+      <c r="F6">
+        <v>-0.0499428394756163</v>
+      </c>
+      <c r="G6">
+        <v>-0.009083210405580243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04435677630843439</v>
+        <v>0.05450383377961172</v>
       </c>
       <c r="C7">
-        <v>0.03510529479083763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02574124760530478</v>
+      </c>
+      <c r="D7">
+        <v>0.03403950874164106</v>
+      </c>
+      <c r="E7">
+        <v>0.02096217934572222</v>
+      </c>
+      <c r="F7">
+        <v>-0.03473370132821971</v>
+      </c>
+      <c r="G7">
+        <v>0.04038523736184087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03246936495170072</v>
+        <v>0.03522185035935056</v>
       </c>
       <c r="C8">
-        <v>0.02647803667073302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01668793008709914</v>
+      </c>
+      <c r="D8">
+        <v>0.04121821969950003</v>
+      </c>
+      <c r="E8">
+        <v>0.004049811184377526</v>
+      </c>
+      <c r="F8">
+        <v>-0.04702136977717302</v>
+      </c>
+      <c r="G8">
+        <v>-0.01903048665470038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06287811409996301</v>
+        <v>0.07183029579806352</v>
       </c>
       <c r="C9">
-        <v>0.04723881063515594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02956338530184706</v>
+      </c>
+      <c r="D9">
+        <v>0.07035493959032969</v>
+      </c>
+      <c r="E9">
+        <v>0.01412170998170539</v>
+      </c>
+      <c r="F9">
+        <v>-0.03712612067764749</v>
+      </c>
+      <c r="G9">
+        <v>0.006522030853278197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0281361801946555</v>
+        <v>0.04041168194594665</v>
       </c>
       <c r="C10">
-        <v>0.03841097454149616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.0401418237815464</v>
+      </c>
+      <c r="D10">
+        <v>-0.1842199980013064</v>
+      </c>
+      <c r="E10">
+        <v>0.04891566036629997</v>
+      </c>
+      <c r="F10">
+        <v>-0.03786804628983571</v>
+      </c>
+      <c r="G10">
+        <v>0.03439513764979032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06825158816861861</v>
+        <v>0.07583006317050626</v>
       </c>
       <c r="C11">
-        <v>0.05388150297874417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03178813460567522</v>
+      </c>
+      <c r="D11">
+        <v>0.06836306012443109</v>
+      </c>
+      <c r="E11">
+        <v>-0.01106365005969941</v>
+      </c>
+      <c r="F11">
+        <v>-0.03842964579549549</v>
+      </c>
+      <c r="G11">
+        <v>0.02055774413673341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05263915852053758</v>
+        <v>0.06163157101944489</v>
       </c>
       <c r="C12">
-        <v>0.05218915148922856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03589571828420177</v>
+      </c>
+      <c r="D12">
+        <v>0.05248818538606807</v>
+      </c>
+      <c r="E12">
+        <v>0.008198537167308825</v>
+      </c>
+      <c r="F12">
+        <v>-0.02964291609477916</v>
+      </c>
+      <c r="G12">
+        <v>0.02064362306677954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.05817277361247299</v>
+        <v>0.06467153043475521</v>
       </c>
       <c r="C13">
-        <v>0.0558298967767103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03349195103582001</v>
+      </c>
+      <c r="D13">
+        <v>0.05117961546377672</v>
+      </c>
+      <c r="E13">
+        <v>0.004349484053516844</v>
+      </c>
+      <c r="F13">
+        <v>-0.01933941255876414</v>
+      </c>
+      <c r="G13">
+        <v>0.008092329042522405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03344442284615712</v>
+        <v>0.03824451208583023</v>
       </c>
       <c r="C14">
-        <v>0.02673915541861096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0193262000641307</v>
+      </c>
+      <c r="D14">
+        <v>0.009438297906712741</v>
+      </c>
+      <c r="E14">
+        <v>0.01091892985866076</v>
+      </c>
+      <c r="F14">
+        <v>-0.01550829102865777</v>
+      </c>
+      <c r="G14">
+        <v>-0.002377372122860411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03978165913428462</v>
+        <v>0.04057568513832699</v>
       </c>
       <c r="C15">
-        <v>0.01423350723488798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003906850024709278</v>
+      </c>
+      <c r="D15">
+        <v>0.01812865896437412</v>
+      </c>
+      <c r="E15">
+        <v>0.03783312287846319</v>
+      </c>
+      <c r="F15">
+        <v>-0.0007976703808521424</v>
+      </c>
+      <c r="G15">
+        <v>-0.02064220154871475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05718151566276683</v>
+        <v>0.06204087778582554</v>
       </c>
       <c r="C16">
-        <v>0.04573827695575738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02798820544523401</v>
+      </c>
+      <c r="D16">
+        <v>0.06045348674756396</v>
+      </c>
+      <c r="E16">
+        <v>-0.001789779244071624</v>
+      </c>
+      <c r="F16">
+        <v>-0.03165127708198469</v>
+      </c>
+      <c r="G16">
+        <v>0.007385902522974184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06206927753543831</v>
+        <v>0.06189218806275187</v>
       </c>
       <c r="C20">
-        <v>0.03761288411556506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01777643380778169</v>
+      </c>
+      <c r="D20">
+        <v>0.04873992250897349</v>
+      </c>
+      <c r="E20">
+        <v>0.01580544683446669</v>
+      </c>
+      <c r="F20">
+        <v>-0.02882381840547088</v>
+      </c>
+      <c r="G20">
+        <v>0.02007463019957282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02662980521806212</v>
+        <v>0.02316764063318931</v>
       </c>
       <c r="C21">
-        <v>0.0006140402671263429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009944061501154603</v>
+      </c>
+      <c r="D21">
+        <v>0.02982031609486354</v>
+      </c>
+      <c r="E21">
+        <v>0.09264959111847183</v>
+      </c>
+      <c r="F21">
+        <v>-0.0003276347533485102</v>
+      </c>
+      <c r="G21">
+        <v>-0.01267560464658122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06887506921334623</v>
+        <v>0.06459197536359472</v>
       </c>
       <c r="C22">
-        <v>0.07529012027121654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04439734865590726</v>
+      </c>
+      <c r="D22">
+        <v>0.1047582865997979</v>
+      </c>
+      <c r="E22">
+        <v>0.6147343303629877</v>
+      </c>
+      <c r="F22">
+        <v>0.1271341259214235</v>
+      </c>
+      <c r="G22">
+        <v>0.0114793523521325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.06950376990008635</v>
+        <v>0.06524407647250506</v>
       </c>
       <c r="C23">
-        <v>0.07489351042617746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04391126663086641</v>
+      </c>
+      <c r="D23">
+        <v>0.1056784453986128</v>
+      </c>
+      <c r="E23">
+        <v>0.6139476056924131</v>
+      </c>
+      <c r="F23">
+        <v>0.1267721570271619</v>
+      </c>
+      <c r="G23">
+        <v>0.009624437802704422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06507172044996788</v>
+        <v>0.0739427171327444</v>
       </c>
       <c r="C24">
-        <v>0.05373812982777403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03338265864058644</v>
+      </c>
+      <c r="D24">
+        <v>0.0654803227254467</v>
+      </c>
+      <c r="E24">
+        <v>0.006209023133511774</v>
+      </c>
+      <c r="F24">
+        <v>-0.04435869457523163</v>
+      </c>
+      <c r="G24">
+        <v>0.008242559463370533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0642275471742086</v>
+        <v>0.07191415579170517</v>
       </c>
       <c r="C25">
-        <v>0.05845483362724151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.0386846943861815</v>
+      </c>
+      <c r="D25">
+        <v>0.06565957198217165</v>
+      </c>
+      <c r="E25">
+        <v>0.006209569630638533</v>
+      </c>
+      <c r="F25">
+        <v>-0.03950659476608128</v>
+      </c>
+      <c r="G25">
+        <v>-0.001167419847973476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03885783225083912</v>
+        <v>0.04062617648428254</v>
       </c>
       <c r="C26">
-        <v>0.0153913752258933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005667133509989407</v>
+      </c>
+      <c r="D26">
+        <v>0.02228836516795359</v>
+      </c>
+      <c r="E26">
+        <v>0.03827040581025594</v>
+      </c>
+      <c r="F26">
+        <v>-0.02163745110055037</v>
+      </c>
+      <c r="G26">
+        <v>0.016143658623138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05180779248957611</v>
+        <v>0.07482697635941589</v>
       </c>
       <c r="C28">
-        <v>0.07304743722056994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.0749612874986621</v>
+      </c>
+      <c r="D28">
+        <v>-0.3221796130787164</v>
+      </c>
+      <c r="E28">
+        <v>0.04101748237649064</v>
+      </c>
+      <c r="F28">
+        <v>-0.04975601067884246</v>
+      </c>
+      <c r="G28">
+        <v>-0.02870005575311762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03515696912261072</v>
+        <v>0.04205097821266637</v>
       </c>
       <c r="C29">
-        <v>0.03137217444575985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02437849257907495</v>
+      </c>
+      <c r="D29">
+        <v>0.009480617128728275</v>
+      </c>
+      <c r="E29">
+        <v>0.03731779721266234</v>
+      </c>
+      <c r="F29">
+        <v>-0.0126968842519301</v>
+      </c>
+      <c r="G29">
+        <v>0.01145265831677014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1154556743155358</v>
+        <v>0.1299952149992559</v>
       </c>
       <c r="C30">
-        <v>0.09775373049333953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0639141098421807</v>
+      </c>
+      <c r="D30">
+        <v>0.1017988518120753</v>
+      </c>
+      <c r="E30">
+        <v>0.03226780580139394</v>
+      </c>
+      <c r="F30">
+        <v>-0.02095406041819517</v>
+      </c>
+      <c r="G30">
+        <v>-0.003749498709901621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03786340264886504</v>
+        <v>0.04260633522679837</v>
       </c>
       <c r="C31">
-        <v>0.02466331869577061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01451940254285752</v>
+      </c>
+      <c r="D31">
+        <v>0.0280698155414248</v>
+      </c>
+      <c r="E31">
+        <v>0.02137844203208134</v>
+      </c>
+      <c r="F31">
+        <v>-0.01380712017999386</v>
+      </c>
+      <c r="G31">
+        <v>0.02266173661142095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03217255296035151</v>
+        <v>0.032802218155378</v>
       </c>
       <c r="C32">
-        <v>0.02455671997313002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0150466483313459</v>
+      </c>
+      <c r="D32">
+        <v>0.0193090044538937</v>
+      </c>
+      <c r="E32">
+        <v>0.05760289656702027</v>
+      </c>
+      <c r="F32">
+        <v>0.00721131316600321</v>
+      </c>
+      <c r="G32">
+        <v>-0.02514977881101725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07467354656625233</v>
+        <v>0.08781133296883405</v>
       </c>
       <c r="C33">
-        <v>0.05416013080204365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03473339465840111</v>
+      </c>
+      <c r="D33">
+        <v>0.06498854901981342</v>
+      </c>
+      <c r="E33">
+        <v>0.01020706968206568</v>
+      </c>
+      <c r="F33">
+        <v>-0.00662860231837604</v>
+      </c>
+      <c r="G33">
+        <v>0.01871198591249435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05058910246002959</v>
+        <v>0.05651565009917985</v>
       </c>
       <c r="C34">
-        <v>0.03339841269547131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01829758247545993</v>
+      </c>
+      <c r="D34">
+        <v>0.05985210562123736</v>
+      </c>
+      <c r="E34">
+        <v>0.002571884828418255</v>
+      </c>
+      <c r="F34">
+        <v>-0.02681959194622572</v>
+      </c>
+      <c r="G34">
+        <v>0.001877065285293376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03672366447332539</v>
+        <v>0.03937974655722129</v>
       </c>
       <c r="C35">
-        <v>0.01350156861987453</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005638080142623837</v>
+      </c>
+      <c r="D35">
+        <v>0.01167020727772995</v>
+      </c>
+      <c r="E35">
+        <v>0.02648910379539999</v>
+      </c>
+      <c r="F35">
+        <v>0.001328156357596146</v>
+      </c>
+      <c r="G35">
+        <v>0.01210578662595582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01845945547103611</v>
+        <v>0.02303583433710921</v>
       </c>
       <c r="C36">
-        <v>0.0174472354322699</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01196747020088322</v>
+      </c>
+      <c r="D36">
+        <v>0.020648116324135</v>
+      </c>
+      <c r="E36">
+        <v>0.03318365439951469</v>
+      </c>
+      <c r="F36">
+        <v>-0.02045578793949163</v>
+      </c>
+      <c r="G36">
+        <v>0.0134721498732347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03876381803064595</v>
+        <v>0.04071715128994344</v>
       </c>
       <c r="C38">
-        <v>0.01154626584425833</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002819083467036969</v>
+      </c>
+      <c r="D38">
+        <v>0.01112046440237576</v>
+      </c>
+      <c r="E38">
+        <v>0.06046381552887705</v>
+      </c>
+      <c r="F38">
+        <v>0.02133357087051819</v>
+      </c>
+      <c r="G38">
+        <v>-0.02024579772776631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08662142425612744</v>
+        <v>0.09976715544618685</v>
       </c>
       <c r="C39">
-        <v>0.08488924039888424</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.0566217736503004</v>
+      </c>
+      <c r="D39">
+        <v>0.08621699288288698</v>
+      </c>
+      <c r="E39">
+        <v>-0.01748554983878989</v>
+      </c>
+      <c r="F39">
+        <v>-0.02091556820765577</v>
+      </c>
+      <c r="G39">
+        <v>-0.01953282252795742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06515560171770025</v>
+        <v>0.0721998012274815</v>
       </c>
       <c r="C40">
-        <v>0.05555467197975069</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03582705209296901</v>
+      </c>
+      <c r="D40">
+        <v>0.01180132373149704</v>
+      </c>
+      <c r="E40">
+        <v>0.02548471212521317</v>
+      </c>
+      <c r="F40">
+        <v>0.04517535523977076</v>
+      </c>
+      <c r="G40">
+        <v>-0.05573785341333763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0388861216286339</v>
+        <v>0.04257272933341961</v>
       </c>
       <c r="C41">
-        <v>0.01799176493909138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008485402835328682</v>
+      </c>
+      <c r="D41">
+        <v>0.04146712046768849</v>
+      </c>
+      <c r="E41">
+        <v>0.007493416687853467</v>
+      </c>
+      <c r="F41">
+        <v>0.007444620151444614</v>
+      </c>
+      <c r="G41">
+        <v>-0.009156835380110152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04149407058901868</v>
+        <v>0.05039754800278164</v>
       </c>
       <c r="C43">
-        <v>0.03791303392826333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02451424519698896</v>
+      </c>
+      <c r="D43">
+        <v>0.03008638983061448</v>
+      </c>
+      <c r="E43">
+        <v>0.01572084243898065</v>
+      </c>
+      <c r="F43">
+        <v>-0.01465307273671611</v>
+      </c>
+      <c r="G43">
+        <v>0.009498225470743461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.08929141409011253</v>
+        <v>0.09210015167071682</v>
       </c>
       <c r="C44">
-        <v>0.09413837901686327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06176058604117293</v>
+      </c>
+      <c r="D44">
+        <v>0.06288577337932341</v>
+      </c>
+      <c r="E44">
+        <v>0.09499729523489103</v>
+      </c>
+      <c r="F44">
+        <v>-0.06686833792125493</v>
+      </c>
+      <c r="G44">
+        <v>-0.01165242223207153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02751296941058223</v>
+        <v>0.02896823751216734</v>
       </c>
       <c r="C46">
-        <v>0.0184143946755844</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01045233441037286</v>
+      </c>
+      <c r="D46">
+        <v>0.03361581863663951</v>
+      </c>
+      <c r="E46">
+        <v>0.01638944378669756</v>
+      </c>
+      <c r="F46">
+        <v>-0.01997545782549726</v>
+      </c>
+      <c r="G46">
+        <v>-0.00669923512472418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02817750482658548</v>
+        <v>0.03093117065275105</v>
       </c>
       <c r="C47">
-        <v>0.02255924178308851</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01392077132877141</v>
+      </c>
+      <c r="D47">
+        <v>0.01635622707445551</v>
+      </c>
+      <c r="E47">
+        <v>0.04829596980300529</v>
+      </c>
+      <c r="F47">
+        <v>-0.01698025909548974</v>
+      </c>
+      <c r="G47">
+        <v>0.02483578816251719</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02769101964531088</v>
+        <v>0.03151440684592949</v>
       </c>
       <c r="C48">
-        <v>0.02037907042675296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0121115493036647</v>
+      </c>
+      <c r="D48">
+        <v>0.03136928223174448</v>
+      </c>
+      <c r="E48">
+        <v>0.04304583196924262</v>
+      </c>
+      <c r="F48">
+        <v>-0.01862901313725652</v>
+      </c>
+      <c r="G48">
+        <v>0.002747577993107914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1513722052992778</v>
+        <v>0.1753110124855885</v>
       </c>
       <c r="C49">
-        <v>0.09549748155776451</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05860036082039292</v>
+      </c>
+      <c r="D49">
+        <v>0.009993996184356112</v>
+      </c>
+      <c r="E49">
+        <v>-0.132506653327211</v>
+      </c>
+      <c r="F49">
+        <v>-0.01880620342813599</v>
+      </c>
+      <c r="G49">
+        <v>0.05517732566255594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03353312399351856</v>
+        <v>0.04045540916023245</v>
       </c>
       <c r="C50">
-        <v>0.02669432983057374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02133141854490593</v>
+      </c>
+      <c r="D50">
+        <v>0.03791866972364378</v>
+      </c>
+      <c r="E50">
+        <v>0.04247789064424424</v>
+      </c>
+      <c r="F50">
+        <v>-0.02758053283937026</v>
+      </c>
+      <c r="G50">
+        <v>0.02174369711369629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02407324232864645</v>
+        <v>0.02556853670360441</v>
       </c>
       <c r="C51">
-        <v>0.01676112754984094</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.009303489665922315</v>
+      </c>
+      <c r="D51">
+        <v>0.0270904568008937</v>
+      </c>
+      <c r="E51">
+        <v>0.01215796702833157</v>
+      </c>
+      <c r="F51">
+        <v>-0.006049239253394207</v>
+      </c>
+      <c r="G51">
+        <v>-0.008319646022020479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1397583071327008</v>
+        <v>0.1585266178168536</v>
       </c>
       <c r="C53">
-        <v>0.1024742630900808</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06924781211704778</v>
+      </c>
+      <c r="D53">
+        <v>0.02382611563797395</v>
+      </c>
+      <c r="E53">
+        <v>-0.03881351011464487</v>
+      </c>
+      <c r="F53">
+        <v>-0.02253933810930357</v>
+      </c>
+      <c r="G53">
+        <v>0.001335982023449987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.05147179724727793</v>
+        <v>0.05612988420872198</v>
       </c>
       <c r="C54">
-        <v>0.02830000530589224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01418090625833932</v>
+      </c>
+      <c r="D54">
+        <v>0.03662209801507403</v>
+      </c>
+      <c r="E54">
+        <v>0.04176522125978364</v>
+      </c>
+      <c r="F54">
+        <v>-0.01644459420005474</v>
+      </c>
+      <c r="G54">
+        <v>0.00261056562539071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.09383702839486799</v>
+        <v>0.1008436292697578</v>
       </c>
       <c r="C55">
-        <v>0.06478505745406417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04268904935439965</v>
+      </c>
+      <c r="D55">
+        <v>0.0319965341538252</v>
+      </c>
+      <c r="E55">
+        <v>0.007269094426005309</v>
+      </c>
+      <c r="F55">
+        <v>-0.02564343336603909</v>
+      </c>
+      <c r="G55">
+        <v>-0.004004435042055697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1361358269528908</v>
+        <v>0.1573727493348711</v>
       </c>
       <c r="C56">
-        <v>0.1120597258145649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07803783312692626</v>
+      </c>
+      <c r="D56">
+        <v>0.01994526974385904</v>
+      </c>
+      <c r="E56">
+        <v>-0.03897031751229762</v>
+      </c>
+      <c r="F56">
+        <v>-0.05284807240075753</v>
+      </c>
+      <c r="G56">
+        <v>0.0171786288613755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1145982361352493</v>
+        <v>0.104402971595956</v>
       </c>
       <c r="C58">
-        <v>0.0322380602173339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.002493254474780002</v>
+      </c>
+      <c r="D58">
+        <v>0.06068755906937342</v>
+      </c>
+      <c r="E58">
+        <v>0.1872403021670658</v>
+      </c>
+      <c r="F58">
+        <v>-0.03916329136662642</v>
+      </c>
+      <c r="G58">
+        <v>0.06331196856586939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1029455672509852</v>
+        <v>0.1457836689622423</v>
       </c>
       <c r="C59">
-        <v>0.08812969673784116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08777329464470154</v>
+      </c>
+      <c r="D59">
+        <v>-0.3512117028607706</v>
+      </c>
+      <c r="E59">
+        <v>0.04961185550359259</v>
+      </c>
+      <c r="F59">
+        <v>0.02102839866358145</v>
+      </c>
+      <c r="G59">
+        <v>0.02599753446740274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1809038792995212</v>
+        <v>0.2133056501073382</v>
       </c>
       <c r="C60">
-        <v>0.121390201273927</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08261264737057258</v>
+      </c>
+      <c r="D60">
+        <v>0.01301621373637002</v>
+      </c>
+      <c r="E60">
+        <v>-0.07182833329579653</v>
+      </c>
+      <c r="F60">
+        <v>-0.03709711099761004</v>
+      </c>
+      <c r="G60">
+        <v>-0.03139810854729506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07497618273509281</v>
+        <v>0.08474200166725954</v>
       </c>
       <c r="C61">
-        <v>0.06171715025105832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04028394686020156</v>
+      </c>
+      <c r="D61">
+        <v>0.06327909289841646</v>
+      </c>
+      <c r="E61">
+        <v>-0.01715596053159476</v>
+      </c>
+      <c r="F61">
+        <v>-0.01110372333487714</v>
+      </c>
+      <c r="G61">
+        <v>0.01917951130684481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1126643632338424</v>
+        <v>0.1359821349641276</v>
       </c>
       <c r="C62">
-        <v>0.08381136549711427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05989292487356652</v>
+      </c>
+      <c r="D62">
+        <v>0.02566381127781794</v>
+      </c>
+      <c r="E62">
+        <v>-0.05682657971504339</v>
+      </c>
+      <c r="F62">
+        <v>-0.02156704277153261</v>
+      </c>
+      <c r="G62">
+        <v>-0.02825531734710141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04942677756273722</v>
+        <v>0.05185536681929534</v>
       </c>
       <c r="C63">
-        <v>0.03042443330139706</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01760939618294193</v>
+      </c>
+      <c r="D63">
+        <v>0.03073961572070405</v>
+      </c>
+      <c r="E63">
+        <v>0.05006449902555006</v>
+      </c>
+      <c r="F63">
+        <v>-0.0156535040295375</v>
+      </c>
+      <c r="G63">
+        <v>-0.02620838329182069</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1057019069009379</v>
+        <v>0.1109556581759452</v>
       </c>
       <c r="C64">
-        <v>0.04910507757137143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02278576739135603</v>
+      </c>
+      <c r="D64">
+        <v>0.04681150085839957</v>
+      </c>
+      <c r="E64">
+        <v>0.02715278752859395</v>
+      </c>
+      <c r="F64">
+        <v>-0.0534027412360964</v>
+      </c>
+      <c r="G64">
+        <v>-0.02271220248780498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.108083558333438</v>
+        <v>0.1240027556305735</v>
       </c>
       <c r="C65">
-        <v>0.06898034258852968</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04537633618962936</v>
+      </c>
+      <c r="D65">
+        <v>0.0151815970017905</v>
+      </c>
+      <c r="E65">
+        <v>-0.001757195053427508</v>
+      </c>
+      <c r="F65">
+        <v>-0.05767036051835472</v>
+      </c>
+      <c r="G65">
+        <v>-0.0231344998736402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1335592795703378</v>
+        <v>0.1515506326901665</v>
       </c>
       <c r="C66">
-        <v>0.09473829411222037</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05813500385197303</v>
+      </c>
+      <c r="D66">
+        <v>0.120091534637975</v>
+      </c>
+      <c r="E66">
+        <v>-0.06111392089448636</v>
+      </c>
+      <c r="F66">
+        <v>-0.04227493602613198</v>
+      </c>
+      <c r="G66">
+        <v>-0.01371380115154702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06925051131662696</v>
+        <v>0.07490523446360138</v>
       </c>
       <c r="C67">
-        <v>0.02581428408331659</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.009598969128653554</v>
+      </c>
+      <c r="D67">
+        <v>0.0245641560498293</v>
+      </c>
+      <c r="E67">
+        <v>0.02649612125632312</v>
+      </c>
+      <c r="F67">
+        <v>0.002479484742546098</v>
+      </c>
+      <c r="G67">
+        <v>0.001996788225151874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05234758323001562</v>
+        <v>0.06846568158211913</v>
       </c>
       <c r="C68">
-        <v>0.04785884129837896</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04850386253111519</v>
+      </c>
+      <c r="D68">
+        <v>-0.2661219274854504</v>
+      </c>
+      <c r="E68">
+        <v>0.05022716067179443</v>
+      </c>
+      <c r="F68">
+        <v>-0.01227118209272278</v>
+      </c>
+      <c r="G68">
+        <v>0.005800969708442856</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04850826227776344</v>
+        <v>0.05054278055030918</v>
       </c>
       <c r="C69">
-        <v>0.02989675439119754</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01241811352076402</v>
+      </c>
+      <c r="D69">
+        <v>0.03567438937116199</v>
+      </c>
+      <c r="E69">
+        <v>0.01642686593957947</v>
+      </c>
+      <c r="F69">
+        <v>-0.001359331560443473</v>
+      </c>
+      <c r="G69">
+        <v>0.003375864677516565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.004780014984133251</v>
+        <v>0.01423314552109273</v>
       </c>
       <c r="C70">
-        <v>-0.002624907071173625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0009214943648320948</v>
+      </c>
+      <c r="D70">
+        <v>-0.006038085886894194</v>
+      </c>
+      <c r="E70">
+        <v>-0.02344642405144051</v>
+      </c>
+      <c r="F70">
+        <v>-0.01084417118117621</v>
+      </c>
+      <c r="G70">
+        <v>0.01442675894938642</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05494523176517734</v>
+        <v>0.07174276116852601</v>
       </c>
       <c r="C71">
-        <v>0.04712326987853671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.0480965947740581</v>
+      </c>
+      <c r="D71">
+        <v>-0.2984488907702882</v>
+      </c>
+      <c r="E71">
+        <v>0.0457934081473625</v>
+      </c>
+      <c r="F71">
+        <v>-0.03369056590622641</v>
+      </c>
+      <c r="G71">
+        <v>0.00142121250879454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.129369628529644</v>
+        <v>0.151260306809657</v>
       </c>
       <c r="C72">
-        <v>0.07757614631273005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04963605764276439</v>
+      </c>
+      <c r="D72">
+        <v>0.0105196494199535</v>
+      </c>
+      <c r="E72">
+        <v>-0.09352731337269667</v>
+      </c>
+      <c r="F72">
+        <v>0.162574799520535</v>
+      </c>
+      <c r="G72">
+        <v>-0.1209494532420197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2434411665146188</v>
+        <v>0.2697232400526313</v>
       </c>
       <c r="C73">
-        <v>0.1430117890677019</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08522354282279843</v>
+      </c>
+      <c r="D73">
+        <v>0.06834183770405222</v>
+      </c>
+      <c r="E73">
+        <v>-0.1863452999725204</v>
+      </c>
+      <c r="F73">
+        <v>-0.06019562415177941</v>
+      </c>
+      <c r="G73">
+        <v>0.2033431606312909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07552743395662963</v>
+        <v>0.08936829332157686</v>
       </c>
       <c r="C74">
-        <v>0.08198103460011801</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06293720344295835</v>
+      </c>
+      <c r="D74">
+        <v>0.03361684631280046</v>
+      </c>
+      <c r="E74">
+        <v>-0.004211836909595625</v>
+      </c>
+      <c r="F74">
+        <v>0.0008197484259879262</v>
+      </c>
+      <c r="G74">
+        <v>0.02631208282284433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09439048535423189</v>
+        <v>0.1064606124213579</v>
       </c>
       <c r="C75">
-        <v>0.06795297191617493</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04001830506745672</v>
+      </c>
+      <c r="D75">
+        <v>0.01559564415488272</v>
+      </c>
+      <c r="E75">
+        <v>0.003085131688338077</v>
+      </c>
+      <c r="F75">
+        <v>-0.06613663522641566</v>
+      </c>
+      <c r="G75">
+        <v>0.01571745413751047</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1159750045293418</v>
+        <v>0.1318022160146519</v>
       </c>
       <c r="C76">
-        <v>0.1024309801128048</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06998719601479736</v>
+      </c>
+      <c r="D76">
+        <v>0.05968986756116195</v>
+      </c>
+      <c r="E76">
+        <v>0.005325155600055254</v>
+      </c>
+      <c r="F76">
+        <v>-0.06753492943422405</v>
+      </c>
+      <c r="G76">
+        <v>-0.00985916614539651</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.1106250247413134</v>
+        <v>0.1151537527027087</v>
       </c>
       <c r="C77">
-        <v>0.06014832757476275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.0260298278123184</v>
+      </c>
+      <c r="D77">
+        <v>0.02318134818411861</v>
+      </c>
+      <c r="E77">
+        <v>-0.02087040810150704</v>
+      </c>
+      <c r="F77">
+        <v>-0.2412665934381638</v>
+      </c>
+      <c r="G77">
+        <v>-0.8807983167020789</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08417246462317871</v>
+        <v>0.1034425598212274</v>
       </c>
       <c r="C78">
-        <v>0.04768323882636954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03232059298170515</v>
+      </c>
+      <c r="D78">
+        <v>0.07576948308892054</v>
+      </c>
+      <c r="E78">
+        <v>0.05587564129162583</v>
+      </c>
+      <c r="F78">
+        <v>0.005080388400121406</v>
+      </c>
+      <c r="G78">
+        <v>-0.02152512622734997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1342298540262084</v>
+        <v>0.1507880219121259</v>
       </c>
       <c r="C79">
-        <v>0.1043474292702142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06482753402878011</v>
+      </c>
+      <c r="D79">
+        <v>0.02771686349464114</v>
+      </c>
+      <c r="E79">
+        <v>-0.02505699131680292</v>
+      </c>
+      <c r="F79">
+        <v>-0.03874062223166824</v>
+      </c>
+      <c r="G79">
+        <v>0.01384248938296254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04172593395203605</v>
+        <v>0.04010555825218528</v>
       </c>
       <c r="C80">
-        <v>0.02100023255291692</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.009138562458785455</v>
+      </c>
+      <c r="D80">
+        <v>0.0280866450411689</v>
+      </c>
+      <c r="E80">
+        <v>0.0007623550374873084</v>
+      </c>
+      <c r="F80">
+        <v>0.02163791931699545</v>
+      </c>
+      <c r="G80">
+        <v>0.03851831023085141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1084249424985153</v>
+        <v>0.1207286910844128</v>
       </c>
       <c r="C81">
-        <v>0.08215370973556418</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05184016009377879</v>
+      </c>
+      <c r="D81">
+        <v>0.03332267127578159</v>
+      </c>
+      <c r="E81">
+        <v>-0.006478570563636014</v>
+      </c>
+      <c r="F81">
+        <v>-0.0371513519666271</v>
+      </c>
+      <c r="G81">
+        <v>0.05255185619564376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1130793560347789</v>
+        <v>0.1250611113172072</v>
       </c>
       <c r="C82">
-        <v>0.09490503747810752</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06145992327060976</v>
+      </c>
+      <c r="D82">
+        <v>0.0383942375491516</v>
+      </c>
+      <c r="E82">
+        <v>-0.03010786388896022</v>
+      </c>
+      <c r="F82">
+        <v>-0.05571478557907111</v>
+      </c>
+      <c r="G82">
+        <v>0.03671121648939824</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07200660300512426</v>
+        <v>0.07334621349793</v>
       </c>
       <c r="C83">
-        <v>0.02135003951711907</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.001329412324373484</v>
+      </c>
+      <c r="D83">
+        <v>0.04617705939652357</v>
+      </c>
+      <c r="E83">
+        <v>0.004078999808378558</v>
+      </c>
+      <c r="F83">
+        <v>-0.006917352208331114</v>
+      </c>
+      <c r="G83">
+        <v>0.07350497029112713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02622769465987811</v>
+        <v>0.03325503968152976</v>
       </c>
       <c r="C84">
-        <v>0.02020827650961898</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01753433794393135</v>
+      </c>
+      <c r="D84">
+        <v>0.01769834988050899</v>
+      </c>
+      <c r="E84">
+        <v>0.01878401870043863</v>
+      </c>
+      <c r="F84">
+        <v>0.04105621459495397</v>
+      </c>
+      <c r="G84">
+        <v>0.05611066054560769</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1189227538679336</v>
+        <v>0.1210775683898212</v>
       </c>
       <c r="C85">
-        <v>0.08076564882006627</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04330635653307302</v>
+      </c>
+      <c r="D85">
+        <v>0.03051371125148382</v>
+      </c>
+      <c r="E85">
+        <v>0.009558278973601684</v>
+      </c>
+      <c r="F85">
+        <v>-0.08446662678783792</v>
+      </c>
+      <c r="G85">
+        <v>0.01306990699844383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0436545231488553</v>
+        <v>0.04570945502867211</v>
       </c>
       <c r="C86">
-        <v>0.02212609445244763</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.007625000801508046</v>
+      </c>
+      <c r="D86">
+        <v>0.01735564097068775</v>
+      </c>
+      <c r="E86">
+        <v>0.04531412522804894</v>
+      </c>
+      <c r="F86">
+        <v>-0.006123923569922595</v>
+      </c>
+      <c r="G86">
+        <v>0.01594763678346355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1149831427478735</v>
+        <v>0.1205262328080234</v>
       </c>
       <c r="C87">
-        <v>0.085963360846638</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04782739240819271</v>
+      </c>
+      <c r="D87">
+        <v>0.07206268683341883</v>
+      </c>
+      <c r="E87">
+        <v>0.01652525981743601</v>
+      </c>
+      <c r="F87">
+        <v>-0.02760346820097206</v>
+      </c>
+      <c r="G87">
+        <v>-0.1049825194529626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05300617070105029</v>
+        <v>0.05749204611870052</v>
       </c>
       <c r="C88">
-        <v>0.04172528851718991</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02543580322788429</v>
+      </c>
+      <c r="D88">
+        <v>0.02591025649789932</v>
+      </c>
+      <c r="E88">
+        <v>0.01954763885993381</v>
+      </c>
+      <c r="F88">
+        <v>-0.01145228870383084</v>
+      </c>
+      <c r="G88">
+        <v>-0.01669142443469992</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.0720250145515893</v>
+        <v>0.1056896779874066</v>
       </c>
       <c r="C89">
-        <v>0.07671509346294497</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07794454786957965</v>
+      </c>
+      <c r="D89">
+        <v>-0.3285735557204231</v>
+      </c>
+      <c r="E89">
+        <v>0.08092776057506104</v>
+      </c>
+      <c r="F89">
+        <v>-0.06295401209337226</v>
+      </c>
+      <c r="G89">
+        <v>0.02084268364004718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06622955011760344</v>
+        <v>0.08822267548961471</v>
       </c>
       <c r="C90">
-        <v>0.06896826814713454</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06656327719914669</v>
+      </c>
+      <c r="D90">
+        <v>-0.3080248156183338</v>
+      </c>
+      <c r="E90">
+        <v>0.06801428757492764</v>
+      </c>
+      <c r="F90">
+        <v>0.01741184667355474</v>
+      </c>
+      <c r="G90">
+        <v>0.01740620372077886</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.07641918392783975</v>
+        <v>0.08621789070101755</v>
       </c>
       <c r="C91">
-        <v>0.0663623246690026</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04339238047086346</v>
+      </c>
+      <c r="D91">
+        <v>0.02947922297649042</v>
+      </c>
+      <c r="E91">
+        <v>0.009101354199129847</v>
+      </c>
+      <c r="F91">
+        <v>-0.01224162124314209</v>
+      </c>
+      <c r="G91">
+        <v>0.02634513679075441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.08094279482436662</v>
+        <v>0.1040092425644485</v>
       </c>
       <c r="C92">
-        <v>0.06885054547889688</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06649281028645128</v>
+      </c>
+      <c r="D92">
+        <v>-0.3304229325628685</v>
+      </c>
+      <c r="E92">
+        <v>0.04484458068176422</v>
+      </c>
+      <c r="F92">
+        <v>-0.02744105249279531</v>
+      </c>
+      <c r="G92">
+        <v>0.002644405740236376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05886627157874629</v>
+        <v>0.08487185967018795</v>
       </c>
       <c r="C93">
-        <v>0.06541424607608995</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06714378680040492</v>
+      </c>
+      <c r="D93">
+        <v>-0.300502561307966</v>
+      </c>
+      <c r="E93">
+        <v>0.03912285845579837</v>
+      </c>
+      <c r="F93">
+        <v>-0.03593507251624404</v>
+      </c>
+      <c r="G93">
+        <v>-0.006622327503638539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1231698217715767</v>
+        <v>0.1261975737260928</v>
       </c>
       <c r="C94">
-        <v>0.07840982326559393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03745169371993155</v>
+      </c>
+      <c r="D94">
+        <v>0.05664826993662086</v>
+      </c>
+      <c r="E94">
+        <v>-0.03044052375642225</v>
+      </c>
+      <c r="F94">
+        <v>-0.04234979182864031</v>
+      </c>
+      <c r="G94">
+        <v>0.02889187064622474</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.114615553186146</v>
+        <v>0.1207523536627497</v>
       </c>
       <c r="C95">
-        <v>0.05590201773201322</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02450458473319254</v>
+      </c>
+      <c r="D95">
+        <v>0.05231488979820426</v>
+      </c>
+      <c r="E95">
+        <v>-0.008644509808860154</v>
+      </c>
+      <c r="F95">
+        <v>-0.03482237655286042</v>
+      </c>
+      <c r="G95">
+        <v>0.009054707504786994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1932882752480122</v>
+        <v>0.22008792836144</v>
       </c>
       <c r="C97">
-        <v>0.07950942302595096</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.03982423865351895</v>
+      </c>
+      <c r="D97">
+        <v>-0.01657151584877667</v>
+      </c>
+      <c r="E97">
+        <v>-0.1569748391810507</v>
+      </c>
+      <c r="F97">
+        <v>0.8900710321713727</v>
+      </c>
+      <c r="G97">
+        <v>-0.1881062118281281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2313858006066516</v>
+        <v>0.2579952938933906</v>
       </c>
       <c r="C98">
-        <v>0.1248221915661334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06433051923763115</v>
+      </c>
+      <c r="D98">
+        <v>0.04584678607577598</v>
+      </c>
+      <c r="E98">
+        <v>-0.1494108588387887</v>
+      </c>
+      <c r="F98">
+        <v>-0.02112450959472121</v>
+      </c>
+      <c r="G98">
+        <v>0.2756212026668977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5693730180208683</v>
+        <v>0.369212946037028</v>
       </c>
       <c r="C99">
-        <v>-0.8123334575923757</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9183411513385248</v>
+      </c>
+      <c r="D99">
+        <v>-0.07470541745532941</v>
+      </c>
+      <c r="E99">
+        <v>0.0426418161930198</v>
+      </c>
+      <c r="F99">
+        <v>-0.03899568051634002</v>
+      </c>
+      <c r="G99">
+        <v>0.01000898947907406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03538378937767681</v>
+        <v>0.04221934997123571</v>
       </c>
       <c r="C101">
-        <v>0.0315243374721442</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02443707881362173</v>
+      </c>
+      <c r="D101">
+        <v>0.01017510060966555</v>
+      </c>
+      <c r="E101">
+        <v>0.03648763446532217</v>
+      </c>
+      <c r="F101">
+        <v>-0.01210801955270433</v>
+      </c>
+      <c r="G101">
+        <v>0.01208235600245838</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
